--- a/converted_files/837/cob-prov-payera.xlsx
+++ b/converted_files/837/cob-prov-payera.xlsx
@@ -59,7 +59,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:MN4"/>
+  <dimension ref="A1:MO4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -643,1185 +643,1190 @@
       </c>
       <c r="DL1" s="3" t="inlineStr">
         <is>
+          <t>DemonstrationProjectIdentifier</t>
+        </is>
+      </c>
+      <c r="DM1" s="3" t="inlineStr">
+        <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="DM1" s="3" t="inlineStr">
+      <c r="DN1" s="3" t="inlineStr">
         <is>
           <t>Diag1Code</t>
         </is>
       </c>
-      <c r="DN1" s="3" t="inlineStr">
+      <c r="DO1" s="3" t="inlineStr">
         <is>
           <t>Diag2Code</t>
         </is>
       </c>
-      <c r="DO1" s="3" t="inlineStr">
+      <c r="DP1" s="3" t="inlineStr">
         <is>
           <t>Diag3Code</t>
         </is>
       </c>
-      <c r="DP1" s="3" t="inlineStr">
+      <c r="DQ1" s="3" t="inlineStr">
         <is>
           <t>Diag4Code</t>
         </is>
       </c>
-      <c r="DQ1" s="3" t="inlineStr">
+      <c r="DR1" s="3" t="inlineStr">
         <is>
           <t>Diag5Code</t>
         </is>
       </c>
-      <c r="DR1" s="3" t="inlineStr">
+      <c r="DS1" s="3" t="inlineStr">
         <is>
           <t>AnesthesiaProcedureCode</t>
         </is>
       </c>
-      <c r="DS1" s="3" t="inlineStr">
+      <c r="DT1" s="3" t="inlineStr">
         <is>
           <t>Condition1Code</t>
         </is>
       </c>
-      <c r="DT1" s="3" t="inlineStr">
+      <c r="DU1" s="3" t="inlineStr">
         <is>
           <t>Condition2Code</t>
         </is>
       </c>
-      <c r="DU1" s="3" t="inlineStr">
+      <c r="DV1" s="3" t="inlineStr">
         <is>
           <t>Condition3Code</t>
         </is>
       </c>
-      <c r="DV1" s="3" t="inlineStr">
+      <c r="DW1" s="3" t="inlineStr">
         <is>
           <t>Attachment1ReportTypeCode</t>
         </is>
       </c>
-      <c r="DW1" s="3" t="inlineStr">
+      <c r="DX1" s="3" t="inlineStr">
         <is>
           <t>Attachment1ReportTransmissionCode</t>
         </is>
       </c>
-      <c r="DX1" s="3" t="inlineStr">
+      <c r="DY1" s="3" t="inlineStr">
         <is>
           <t>Attachment1ControlNumber</t>
         </is>
       </c>
-      <c r="DY1" s="3" t="inlineStr">
+      <c r="DZ1" s="3" t="inlineStr">
         <is>
           <t>Attachment2ReportTypeCode</t>
         </is>
       </c>
-      <c r="DZ1" s="3" t="inlineStr">
+      <c r="EA1" s="3" t="inlineStr">
         <is>
           <t>Attachment2ReportTransmissionCode</t>
         </is>
       </c>
-      <c r="EA1" s="3" t="inlineStr">
+      <c r="EB1" s="3" t="inlineStr">
         <is>
           <t>Attachment2ControlNumber</t>
         </is>
       </c>
-      <c r="EB1" s="3" t="inlineStr">
+      <c r="EC1" s="3" t="inlineStr">
         <is>
           <t>Attachment3ReportTypeCode</t>
         </is>
       </c>
-      <c r="EC1" s="3" t="inlineStr">
+      <c r="ED1" s="3" t="inlineStr">
         <is>
           <t>Attachment3ReportTransmissionCode</t>
         </is>
       </c>
-      <c r="ED1" s="3" t="inlineStr">
+      <c r="EE1" s="3" t="inlineStr">
         <is>
           <t>Attachment3ControlNumber</t>
         </is>
       </c>
-      <c r="EE1" s="3" t="inlineStr">
+      <c r="EF1" s="3" t="inlineStr">
         <is>
           <t>ReferringProviderIdentifier</t>
         </is>
       </c>
-      <c r="EF1" s="3" t="inlineStr">
+      <c r="EG1" s="3" t="inlineStr">
         <is>
           <t>ReferringProviderLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="EG1" s="3" t="inlineStr">
+      <c r="EH1" s="3" t="inlineStr">
         <is>
           <t>ReferringProviderFirstName</t>
         </is>
       </c>
-      <c r="EH1" s="3" t="inlineStr">
+      <c r="EI1" s="3" t="inlineStr">
         <is>
           <t>ReferringProviderMiddleName</t>
         </is>
       </c>
-      <c r="EI1" s="3" t="inlineStr">
+      <c r="EJ1" s="3" t="inlineStr">
         <is>
           <t>ReferringProviderAdditionalId1Type</t>
         </is>
       </c>
-      <c r="EJ1" s="3" t="inlineStr">
+      <c r="EK1" s="3" t="inlineStr">
         <is>
           <t>ReferringProviderAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="EK1" s="3" t="inlineStr">
+      <c r="EL1" s="3" t="inlineStr">
         <is>
           <t>ReferringProviderAdditionalId2Type</t>
         </is>
       </c>
-      <c r="EL1" s="3" t="inlineStr">
+      <c r="EM1" s="3" t="inlineStr">
         <is>
           <t>ReferringProviderAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="EM1" s="3" t="inlineStr">
+      <c r="EN1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderIdentifier</t>
         </is>
       </c>
-      <c r="EN1" s="3" t="inlineStr">
+      <c r="EO1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="EO1" s="3" t="inlineStr">
+      <c r="EP1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderFirstName</t>
         </is>
       </c>
-      <c r="EP1" s="3" t="inlineStr">
+      <c r="EQ1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderMiddleName</t>
         </is>
       </c>
-      <c r="EQ1" s="3" t="inlineStr">
+      <c r="ER1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderProviderTaxonomyCode</t>
         </is>
       </c>
-      <c r="ER1" s="3" t="inlineStr">
+      <c r="ES1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderAdditionalId1Type</t>
         </is>
       </c>
-      <c r="ES1" s="3" t="inlineStr">
+      <c r="ET1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="ET1" s="3" t="inlineStr">
+      <c r="EU1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderAdditionalId2Type</t>
         </is>
       </c>
-      <c r="EU1" s="3" t="inlineStr">
+      <c r="EV1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="EV1" s="3" t="inlineStr">
+      <c r="EW1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityIdentifier</t>
         </is>
       </c>
-      <c r="EW1" s="3" t="inlineStr">
+      <c r="EX1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityName</t>
         </is>
       </c>
-      <c r="EX1" s="3" t="inlineStr">
+      <c r="EY1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAddressLine</t>
         </is>
       </c>
-      <c r="EY1" s="3" t="inlineStr">
+      <c r="EZ1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAddressLine2</t>
         </is>
       </c>
-      <c r="EZ1" s="3" t="inlineStr">
+      <c r="FA1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAddressCity</t>
         </is>
       </c>
-      <c r="FA1" s="3" t="inlineStr">
+      <c r="FB1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAddressStateCode</t>
         </is>
       </c>
-      <c r="FB1" s="3" t="inlineStr">
+      <c r="FC1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAddressZipCode</t>
         </is>
       </c>
-      <c r="FC1" s="3" t="inlineStr">
+      <c r="FD1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityContactName</t>
         </is>
       </c>
-      <c r="FD1" s="3" t="inlineStr">
+      <c r="FE1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="FE1" s="3" t="inlineStr">
+      <c r="FF1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="FF1" s="3" t="inlineStr">
+      <c r="FG1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="FG1" s="3" t="inlineStr">
+      <c r="FH1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="FH1" s="3" t="inlineStr">
+      <c r="FI1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAdditionalId1Type</t>
         </is>
       </c>
-      <c r="FI1" s="3" t="inlineStr">
+      <c r="FJ1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="FJ1" s="3" t="inlineStr">
+      <c r="FK1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAdditionalId2Type</t>
         </is>
       </c>
-      <c r="FK1" s="3" t="inlineStr">
+      <c r="FL1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="FL1" s="3" t="inlineStr">
+      <c r="FM1" s="3" t="inlineStr">
         <is>
           <t>SupervisingProviderIdentifier</t>
         </is>
       </c>
-      <c r="FM1" s="3" t="inlineStr">
+      <c r="FN1" s="3" t="inlineStr">
         <is>
           <t>SupervisingProviderLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="FN1" s="3" t="inlineStr">
+      <c r="FO1" s="3" t="inlineStr">
         <is>
           <t>SupervisingProviderFirstName</t>
         </is>
       </c>
-      <c r="FO1" s="3" t="inlineStr">
+      <c r="FP1" s="3" t="inlineStr">
         <is>
           <t>SupervisingProviderMiddleName</t>
         </is>
       </c>
-      <c r="FP1" s="3" t="inlineStr">
+      <c r="FQ1" s="3" t="inlineStr">
         <is>
           <t>SupervisingProviderAdditionalId1Type</t>
         </is>
       </c>
-      <c r="FQ1" s="3" t="inlineStr">
+      <c r="FR1" s="3" t="inlineStr">
         <is>
           <t>SupervisingProviderAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="FR1" s="3" t="inlineStr">
+      <c r="FS1" s="3" t="inlineStr">
         <is>
           <t>SupervisingProviderAdditionalId2Type</t>
         </is>
       </c>
-      <c r="FS1" s="3" t="inlineStr">
+      <c r="FT1" s="3" t="inlineStr">
         <is>
           <t>SupervisingProviderAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="FT1" s="3" t="inlineStr">
+      <c r="FU1" s="3" t="inlineStr">
         <is>
           <t>AmbulancePickUpAddressLine</t>
         </is>
       </c>
-      <c r="FU1" s="3" t="inlineStr">
+      <c r="FV1" s="3" t="inlineStr">
         <is>
           <t>AmbulancePickUpAddressLine2</t>
         </is>
       </c>
-      <c r="FV1" s="3" t="inlineStr">
+      <c r="FW1" s="3" t="inlineStr">
         <is>
           <t>AmbulancePickUpAddressCity</t>
         </is>
       </c>
-      <c r="FW1" s="3" t="inlineStr">
+      <c r="FX1" s="3" t="inlineStr">
         <is>
           <t>AmbulancePickUpAddressStateCode</t>
         </is>
       </c>
-      <c r="FX1" s="3" t="inlineStr">
+      <c r="FY1" s="3" t="inlineStr">
         <is>
           <t>AmbulancePickUpAddressZipCode</t>
         </is>
       </c>
-      <c r="FY1" s="3" t="inlineStr">
+      <c r="FZ1" s="3" t="inlineStr">
         <is>
           <t>AmbulanceDropOffLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="FZ1" s="3" t="inlineStr">
+      <c r="GA1" s="3" t="inlineStr">
         <is>
           <t>AmbulanceDropOffAddressLine</t>
         </is>
       </c>
-      <c r="GA1" s="3" t="inlineStr">
+      <c r="GB1" s="3" t="inlineStr">
         <is>
           <t>AmbulanceDropOffAddressLine2</t>
         </is>
       </c>
-      <c r="GB1" s="3" t="inlineStr">
+      <c r="GC1" s="3" t="inlineStr">
         <is>
           <t>AmbulanceDropOffAddressCity</t>
         </is>
       </c>
-      <c r="GC1" s="3" t="inlineStr">
+      <c r="GD1" s="3" t="inlineStr">
         <is>
           <t>AmbulanceDropOffAddressStateCode</t>
         </is>
       </c>
-      <c r="GD1" s="3" t="inlineStr">
+      <c r="GE1" s="3" t="inlineStr">
         <is>
           <t>AmbulanceDropOffAddressZipCode</t>
         </is>
       </c>
-      <c r="GE1" s="3" t="inlineStr">
+      <c r="GF1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerResponsibilitySequence</t>
         </is>
       </c>
-      <c r="GF1" s="3" t="inlineStr">
+      <c r="GG1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberRelationshipType</t>
         </is>
       </c>
-      <c r="GG1" s="3" t="inlineStr">
+      <c r="GH1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberGroupOrPolicyNumber</t>
         </is>
       </c>
-      <c r="GH1" s="3" t="inlineStr">
+      <c r="GI1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberGroupName</t>
         </is>
       </c>
-      <c r="GI1" s="3" t="inlineStr">
+      <c r="GJ1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberClaimFilingIndicatorCode</t>
         </is>
       </c>
-      <c r="GJ1" s="3" t="inlineStr">
+      <c r="GK1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberIdentificationType</t>
         </is>
       </c>
-      <c r="GK1" s="3" t="inlineStr">
+      <c r="GL1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberIdentifier</t>
         </is>
       </c>
-      <c r="GL1" s="3" t="inlineStr">
+      <c r="GM1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberTaxId</t>
         </is>
       </c>
-      <c r="GM1" s="3" t="inlineStr">
+      <c r="GN1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberLastName</t>
         </is>
       </c>
-      <c r="GN1" s="3" t="inlineStr">
+      <c r="GO1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberFirstName</t>
         </is>
       </c>
-      <c r="GO1" s="3" t="inlineStr">
+      <c r="GP1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberMiddleName</t>
         </is>
       </c>
-      <c r="GP1" s="3" t="inlineStr">
+      <c r="GQ1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAddressLine</t>
         </is>
       </c>
-      <c r="GQ1" s="3" t="inlineStr">
+      <c r="GR1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAddressLine2</t>
         </is>
       </c>
-      <c r="GR1" s="3" t="inlineStr">
+      <c r="GS1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAddressCity</t>
         </is>
       </c>
-      <c r="GS1" s="3" t="inlineStr">
+      <c r="GT1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAddressStateCode</t>
         </is>
       </c>
-      <c r="GT1" s="3" t="inlineStr">
+      <c r="GU1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAddressZipCode</t>
         </is>
       </c>
-      <c r="GU1" s="3" t="inlineStr">
+      <c r="GV1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment1Group</t>
         </is>
       </c>
-      <c r="GV1" s="3" t="inlineStr">
+      <c r="GW1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment1ReasonCode</t>
         </is>
       </c>
-      <c r="GW1" s="3" t="inlineStr">
+      <c r="GX1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment1Amount</t>
         </is>
       </c>
-      <c r="GX1" s="3" t="inlineStr">
+      <c r="GY1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment1Quantity</t>
         </is>
       </c>
-      <c r="GY1" s="3" t="inlineStr">
+      <c r="GZ1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment2Group</t>
         </is>
       </c>
-      <c r="GZ1" s="3" t="inlineStr">
+      <c r="HA1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment2ReasonCode</t>
         </is>
       </c>
-      <c r="HA1" s="3" t="inlineStr">
+      <c r="HB1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment2Amount</t>
         </is>
       </c>
-      <c r="HB1" s="3" t="inlineStr">
+      <c r="HC1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment2Quantity</t>
         </is>
       </c>
-      <c r="HC1" s="3" t="inlineStr">
+      <c r="HD1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment3Group</t>
         </is>
       </c>
-      <c r="HD1" s="3" t="inlineStr">
+      <c r="HE1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment3ReasonCode</t>
         </is>
       </c>
-      <c r="HE1" s="3" t="inlineStr">
+      <c r="HF1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment3Amount</t>
         </is>
       </c>
-      <c r="HF1" s="3" t="inlineStr">
+      <c r="HG1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment3Quantity</t>
         </is>
       </c>
-      <c r="HG1" s="3" t="inlineStr">
+      <c r="HH1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerPaidAmount</t>
         </is>
       </c>
-      <c r="HH1" s="3" t="inlineStr">
+      <c r="HI1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberNonCoveredAmount</t>
         </is>
       </c>
-      <c r="HI1" s="3" t="inlineStr">
+      <c r="HJ1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberRemainingPatientLiabilityAmount</t>
         </is>
       </c>
-      <c r="HJ1" s="3" t="inlineStr">
+      <c r="HK1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerClaimControlNumber</t>
         </is>
       </c>
-      <c r="HK1" s="3" t="inlineStr">
+      <c r="HL1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerIdentificationType</t>
         </is>
       </c>
-      <c r="HL1" s="3" t="inlineStr">
+      <c r="HM1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerIdentifier</t>
         </is>
       </c>
-      <c r="HM1" s="3" t="inlineStr">
+      <c r="HN1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerTaxId</t>
         </is>
       </c>
-      <c r="HN1" s="3" t="inlineStr">
+      <c r="HO1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerName</t>
         </is>
       </c>
-      <c r="HO1" s="3" t="inlineStr">
+      <c r="HP1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAddressLine</t>
         </is>
       </c>
-      <c r="HP1" s="3" t="inlineStr">
+      <c r="HQ1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAddressLine2</t>
         </is>
       </c>
-      <c r="HQ1" s="3" t="inlineStr">
+      <c r="HR1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAddressCity</t>
         </is>
       </c>
-      <c r="HR1" s="3" t="inlineStr">
+      <c r="HS1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAddressStateCode</t>
         </is>
       </c>
-      <c r="HS1" s="3" t="inlineStr">
+      <c r="HT1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAddressZipCode</t>
         </is>
       </c>
-      <c r="HT1" s="3" t="inlineStr">
+      <c r="HU1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAdditionalId1Type</t>
         </is>
       </c>
-      <c r="HU1" s="3" t="inlineStr">
+      <c r="HV1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="HV1" s="3" t="inlineStr">
+      <c r="HW1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAdditionalId2Type</t>
         </is>
       </c>
-      <c r="HW1" s="3" t="inlineStr">
+      <c r="HX1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="HX1" s="3" t="inlineStr">
+      <c r="HY1" s="3" t="inlineStr">
         <is>
           <t>LineControlNumber</t>
         </is>
       </c>
-      <c r="HY1" s="3" t="inlineStr">
+      <c r="HZ1" s="3" t="inlineStr">
         <is>
           <t>LineProcedureCode</t>
         </is>
       </c>
-      <c r="HZ1" s="3" t="inlineStr">
+      <c r="IA1" s="3" t="inlineStr">
         <is>
           <t>LineProcedureDescFromClaim</t>
         </is>
       </c>
-      <c r="IA1" s="3" t="inlineStr">
+      <c r="IB1" s="3" t="inlineStr">
         <is>
           <t>LineProcedureModifier1Code</t>
         </is>
       </c>
-      <c r="IB1" s="3" t="inlineStr">
+      <c r="IC1" s="3" t="inlineStr">
         <is>
           <t>LineProcedureModifier2Code</t>
         </is>
       </c>
-      <c r="IC1" s="3" t="inlineStr">
+      <c r="ID1" s="3" t="inlineStr">
         <is>
           <t>LineProcedureModifier3Code</t>
         </is>
       </c>
-      <c r="ID1" s="3" t="inlineStr">
+      <c r="IE1" s="3" t="inlineStr">
         <is>
           <t>LineProcedureModifier4Code</t>
         </is>
       </c>
-      <c r="IE1" s="3" t="inlineStr">
+      <c r="IF1" s="3" t="inlineStr">
         <is>
           <t>LineChargeAmount</t>
         </is>
       </c>
-      <c r="IF1" s="3" t="inlineStr">
+      <c r="IG1" s="3" t="inlineStr">
         <is>
           <t>LineUnitType</t>
         </is>
       </c>
-      <c r="IG1" s="3" t="inlineStr">
+      <c r="IH1" s="3" t="inlineStr">
         <is>
           <t>LineUnitCount</t>
         </is>
       </c>
-      <c r="IH1" s="3" t="inlineStr">
+      <c r="II1" s="3" t="inlineStr">
         <is>
           <t>LinePlaceOfService</t>
         </is>
       </c>
-      <c r="II1" s="3" t="inlineStr">
+      <c r="IJ1" s="3" t="inlineStr">
         <is>
           <t>LinePlaceOfServiceCode</t>
         </is>
       </c>
-      <c r="IJ1" s="3" t="inlineStr">
+      <c r="IK1" s="3" t="inlineStr">
         <is>
           <t>LineDiagPointer1</t>
         </is>
       </c>
-      <c r="IK1" s="3" t="inlineStr">
+      <c r="IL1" s="3" t="inlineStr">
         <is>
           <t>LineDiagPointer2</t>
         </is>
       </c>
-      <c r="IL1" s="3" t="inlineStr">
+      <c r="IM1" s="3" t="inlineStr">
         <is>
           <t>LineDiagPointer3</t>
         </is>
       </c>
-      <c r="IM1" s="3" t="inlineStr">
+      <c r="IN1" s="3" t="inlineStr">
         <is>
           <t>LineEmergencyIndicator</t>
         </is>
       </c>
-      <c r="IN1" s="3" t="inlineStr">
+      <c r="IO1" s="3" t="inlineStr">
         <is>
           <t>LineEpsdtIndicator</t>
         </is>
       </c>
-      <c r="IO1" s="3" t="inlineStr">
+      <c r="IP1" s="3" t="inlineStr">
         <is>
           <t>LineFamilyPlanningIndicator</t>
         </is>
       </c>
-      <c r="IP1" s="3" t="inlineStr">
+      <c r="IQ1" s="3" t="inlineStr">
         <is>
           <t>LineCopayStatusCode</t>
         </is>
       </c>
-      <c r="IQ1" s="3" t="inlineStr">
+      <c r="IR1" s="3" t="inlineStr">
         <is>
           <t>LineServiceDateFrom</t>
         </is>
       </c>
-      <c r="IR1" s="3" t="inlineStr">
+      <c r="IS1" s="3" t="inlineStr">
         <is>
           <t>LineServiceDateTo</t>
         </is>
       </c>
-      <c r="IS1" s="3" t="inlineStr">
+      <c r="IT1" s="3" t="inlineStr">
         <is>
           <t>LinePrescriptionDate</t>
         </is>
       </c>
-      <c r="IT1" s="3" t="inlineStr">
+      <c r="IU1" s="3" t="inlineStr">
         <is>
           <t>LineBeginTherapyDate</t>
         </is>
       </c>
-      <c r="IU1" s="3" t="inlineStr">
+      <c r="IV1" s="3" t="inlineStr">
         <is>
           <t>LineLastSeenDate</t>
         </is>
       </c>
-      <c r="IV1" s="3" t="inlineStr">
+      <c r="IW1" s="3" t="inlineStr">
         <is>
           <t>LineTestPerformedDate</t>
         </is>
       </c>
-      <c r="IW1" s="3" t="inlineStr">
+      <c r="IX1" s="3" t="inlineStr">
         <is>
           <t>LineLastXRayDate</t>
         </is>
       </c>
-      <c r="IX1" s="3" t="inlineStr">
+      <c r="IY1" s="3" t="inlineStr">
         <is>
           <t>LineInitialTreatmentDate</t>
         </is>
       </c>
-      <c r="IY1" s="3" t="inlineStr">
+      <c r="IZ1" s="3" t="inlineStr">
         <is>
           <t>LinePriorAuthorization</t>
         </is>
       </c>
-      <c r="IZ1" s="3" t="inlineStr">
+      <c r="JA1" s="3" t="inlineStr">
         <is>
           <t>LineReferralNumber</t>
         </is>
       </c>
-      <c r="JA1" s="3" t="inlineStr">
+      <c r="JB1" s="3" t="inlineStr">
         <is>
           <t>LineRepricedReferenceNumber</t>
         </is>
       </c>
-      <c r="JB1" s="3" t="inlineStr">
+      <c r="JC1" s="3" t="inlineStr">
         <is>
           <t>LineAdjustedRepricedReferenceNumber</t>
         </is>
       </c>
-      <c r="JC1" s="3" t="inlineStr">
+      <c r="JD1" s="3" t="inlineStr">
         <is>
           <t>LineNote</t>
         </is>
       </c>
-      <c r="JD1" s="3" t="inlineStr">
+      <c r="JE1" s="3" t="inlineStr">
         <is>
           <t>LineThirdPartyNote</t>
         </is>
       </c>
-      <c r="JE1" s="3" t="inlineStr">
+      <c r="JF1" s="3" t="inlineStr">
         <is>
           <t>LineDrugCode</t>
         </is>
       </c>
-      <c r="JF1" s="3" t="inlineStr">
+      <c r="JG1" s="3" t="inlineStr">
         <is>
           <t>LineDrugQuantity</t>
         </is>
       </c>
-      <c r="JG1" s="3" t="inlineStr">
+      <c r="JH1" s="3" t="inlineStr">
         <is>
           <t>LineDrugUnitType</t>
         </is>
       </c>
-      <c r="JH1" s="3" t="inlineStr">
+      <c r="JI1" s="3" t="inlineStr">
         <is>
           <t>LinePrescriptionNumber</t>
         </is>
       </c>
-      <c r="JI1" s="3" t="inlineStr">
+      <c r="JJ1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment1ReportTypeCode</t>
         </is>
       </c>
-      <c r="JJ1" s="3" t="inlineStr">
+      <c r="JK1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment1ReportTransmissionCode</t>
         </is>
       </c>
-      <c r="JK1" s="3" t="inlineStr">
+      <c r="JL1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment1ControlNumber</t>
         </is>
       </c>
-      <c r="JL1" s="3" t="inlineStr">
+      <c r="JM1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment2ReportTypeCode</t>
         </is>
       </c>
-      <c r="JM1" s="3" t="inlineStr">
+      <c r="JN1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment2ReportTransmissionCode</t>
         </is>
       </c>
-      <c r="JN1" s="3" t="inlineStr">
+      <c r="JO1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment2ControlNumber</t>
         </is>
       </c>
-      <c r="JO1" s="3" t="inlineStr">
+      <c r="JP1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment3ReportTypeCode</t>
         </is>
       </c>
-      <c r="JP1" s="3" t="inlineStr">
+      <c r="JQ1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment3ReportTransmissionCode</t>
         </is>
       </c>
-      <c r="JQ1" s="3" t="inlineStr">
+      <c r="JR1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment3ControlNumber</t>
         </is>
       </c>
-      <c r="JR1" s="3" t="inlineStr">
+      <c r="JS1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderIdentifier</t>
         </is>
       </c>
-      <c r="JS1" s="3" t="inlineStr">
+      <c r="JT1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="JT1" s="3" t="inlineStr">
+      <c r="JU1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderFirstName</t>
         </is>
       </c>
-      <c r="JU1" s="3" t="inlineStr">
+      <c r="JV1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderMiddleName</t>
         </is>
       </c>
-      <c r="JV1" s="3" t="inlineStr">
+      <c r="JW1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderProviderTaxonomyCode</t>
         </is>
       </c>
-      <c r="JW1" s="3" t="inlineStr">
+      <c r="JX1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderAdditionalId1Type</t>
         </is>
       </c>
-      <c r="JX1" s="3" t="inlineStr">
+      <c r="JY1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="JY1" s="3" t="inlineStr">
+      <c r="JZ1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderAdditionalId2Type</t>
         </is>
       </c>
-      <c r="JZ1" s="3" t="inlineStr">
+      <c r="KA1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="KA1" s="3" t="inlineStr">
+      <c r="KB1" s="3" t="inlineStr">
         <is>
           <t>LinePurchasedServiceProviderIdentifier</t>
         </is>
       </c>
-      <c r="KB1" s="3" t="inlineStr">
+      <c r="KC1" s="3" t="inlineStr">
         <is>
           <t>LinePurchasedServiceProviderAdditionalId1Type</t>
         </is>
       </c>
-      <c r="KC1" s="3" t="inlineStr">
+      <c r="KD1" s="3" t="inlineStr">
         <is>
           <t>LinePurchasedServiceProviderAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="KD1" s="3" t="inlineStr">
+      <c r="KE1" s="3" t="inlineStr">
         <is>
           <t>LinePurchasedServiceProviderAdditionalId2Type</t>
         </is>
       </c>
-      <c r="KE1" s="3" t="inlineStr">
+      <c r="KF1" s="3" t="inlineStr">
         <is>
           <t>LinePurchasedServiceProviderAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="KF1" s="3" t="inlineStr">
+      <c r="KG1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityIdentifier</t>
         </is>
       </c>
-      <c r="KG1" s="3" t="inlineStr">
+      <c r="KH1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityName</t>
         </is>
       </c>
-      <c r="KH1" s="3" t="inlineStr">
+      <c r="KI1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAddressLine</t>
         </is>
       </c>
-      <c r="KI1" s="3" t="inlineStr">
+      <c r="KJ1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAddressLine2</t>
         </is>
       </c>
-      <c r="KJ1" s="3" t="inlineStr">
+      <c r="KK1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAddressCity</t>
         </is>
       </c>
-      <c r="KK1" s="3" t="inlineStr">
+      <c r="KL1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAddressStateCode</t>
         </is>
       </c>
-      <c r="KL1" s="3" t="inlineStr">
+      <c r="KM1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAddressZipCode</t>
         </is>
       </c>
-      <c r="KM1" s="3" t="inlineStr">
+      <c r="KN1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityContactName</t>
         </is>
       </c>
-      <c r="KN1" s="3" t="inlineStr">
+      <c r="KO1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="KO1" s="3" t="inlineStr">
+      <c r="KP1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="KP1" s="3" t="inlineStr">
+      <c r="KQ1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="KQ1" s="3" t="inlineStr">
+      <c r="KR1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="KR1" s="3" t="inlineStr">
+      <c r="KS1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAdditionalId1Type</t>
         </is>
       </c>
-      <c r="KS1" s="3" t="inlineStr">
+      <c r="KT1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="KT1" s="3" t="inlineStr">
+      <c r="KU1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAdditionalId2Type</t>
         </is>
       </c>
-      <c r="KU1" s="3" t="inlineStr">
+      <c r="KV1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="KV1" s="3" t="inlineStr">
+      <c r="KW1" s="3" t="inlineStr">
         <is>
           <t>LineSupervisingProviderIdentifier</t>
         </is>
       </c>
-      <c r="KW1" s="3" t="inlineStr">
+      <c r="KX1" s="3" t="inlineStr">
         <is>
           <t>LineSupervisingProviderLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="KX1" s="3" t="inlineStr">
+      <c r="KY1" s="3" t="inlineStr">
         <is>
           <t>LineSupervisingProviderFirstName</t>
         </is>
       </c>
-      <c r="KY1" s="3" t="inlineStr">
+      <c r="KZ1" s="3" t="inlineStr">
         <is>
           <t>LineSupervisingProviderMiddleName</t>
         </is>
       </c>
-      <c r="KZ1" s="3" t="inlineStr">
+      <c r="LA1" s="3" t="inlineStr">
         <is>
           <t>LineSupervisingProviderAdditionalId1Type</t>
         </is>
       </c>
-      <c r="LA1" s="3" t="inlineStr">
+      <c r="LB1" s="3" t="inlineStr">
         <is>
           <t>LineSupervisingProviderAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="LB1" s="3" t="inlineStr">
+      <c r="LC1" s="3" t="inlineStr">
         <is>
           <t>LineSupervisingProviderAdditionalId2Type</t>
         </is>
       </c>
-      <c r="LC1" s="3" t="inlineStr">
+      <c r="LD1" s="3" t="inlineStr">
         <is>
           <t>LineSupervisingProviderAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="LD1" s="3" t="inlineStr">
+      <c r="LE1" s="3" t="inlineStr">
         <is>
           <t>LineReferringProviderIdentifier</t>
         </is>
       </c>
-      <c r="LE1" s="3" t="inlineStr">
+      <c r="LF1" s="3" t="inlineStr">
         <is>
           <t>LineReferringProviderLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="LF1" s="3" t="inlineStr">
+      <c r="LG1" s="3" t="inlineStr">
         <is>
           <t>LineReferringProviderFirstName</t>
         </is>
       </c>
-      <c r="LG1" s="3" t="inlineStr">
+      <c r="LH1" s="3" t="inlineStr">
         <is>
           <t>LineReferringProviderMiddleName</t>
         </is>
       </c>
-      <c r="LH1" s="3" t="inlineStr">
+      <c r="LI1" s="3" t="inlineStr">
         <is>
           <t>LineReferringProviderAdditionalId1Type</t>
         </is>
       </c>
-      <c r="LI1" s="3" t="inlineStr">
+      <c r="LJ1" s="3" t="inlineStr">
         <is>
           <t>LineReferringProviderAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="LJ1" s="3" t="inlineStr">
+      <c r="LK1" s="3" t="inlineStr">
         <is>
           <t>LineReferringProviderAdditionalId2Type</t>
         </is>
       </c>
-      <c r="LK1" s="3" t="inlineStr">
+      <c r="LL1" s="3" t="inlineStr">
         <is>
           <t>LineReferringProviderAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="LL1" s="3" t="inlineStr">
+      <c r="LM1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderIdentifier</t>
         </is>
       </c>
-      <c r="LM1" s="3" t="inlineStr">
+      <c r="LN1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="LN1" s="3" t="inlineStr">
+      <c r="LO1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderFirstName</t>
         </is>
       </c>
-      <c r="LO1" s="3" t="inlineStr">
+      <c r="LP1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderMiddleName</t>
         </is>
       </c>
-      <c r="LP1" s="3" t="inlineStr">
+      <c r="LQ1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAddressLine</t>
         </is>
       </c>
-      <c r="LQ1" s="3" t="inlineStr">
+      <c r="LR1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAddressLine2</t>
         </is>
       </c>
-      <c r="LR1" s="3" t="inlineStr">
+      <c r="LS1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAddressCity</t>
         </is>
       </c>
-      <c r="LS1" s="3" t="inlineStr">
+      <c r="LT1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAddressStateCode</t>
         </is>
       </c>
-      <c r="LT1" s="3" t="inlineStr">
+      <c r="LU1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAddressZipCode</t>
         </is>
       </c>
-      <c r="LU1" s="3" t="inlineStr">
+      <c r="LV1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderContactName</t>
         </is>
       </c>
-      <c r="LV1" s="3" t="inlineStr">
+      <c r="LW1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="LW1" s="3" t="inlineStr">
+      <c r="LX1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="LX1" s="3" t="inlineStr">
+      <c r="LY1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="LY1" s="3" t="inlineStr">
+      <c r="LZ1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="LZ1" s="3" t="inlineStr">
+      <c r="MA1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAdditionalId1Type</t>
         </is>
       </c>
-      <c r="MA1" s="3" t="inlineStr">
+      <c r="MB1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="MB1" s="3" t="inlineStr">
+      <c r="MC1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAdditionalId2Type</t>
         </is>
       </c>
-      <c r="MC1" s="3" t="inlineStr">
+      <c r="MD1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="MD1" s="3" t="inlineStr">
+      <c r="ME1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulancePickUpAddressLine</t>
         </is>
       </c>
-      <c r="ME1" s="3" t="inlineStr">
+      <c r="MF1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulancePickUpAddressLine2</t>
         </is>
       </c>
-      <c r="MF1" s="3" t="inlineStr">
+      <c r="MG1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulancePickUpAddressCity</t>
         </is>
       </c>
-      <c r="MG1" s="3" t="inlineStr">
+      <c r="MH1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulancePickUpAddressStateCode</t>
         </is>
       </c>
-      <c r="MH1" s="3" t="inlineStr">
+      <c r="MI1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulancePickUpAddressZipCode</t>
         </is>
       </c>
-      <c r="MI1" s="3" t="inlineStr">
+      <c r="MJ1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulanceDropOffLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="MJ1" s="3" t="inlineStr">
+      <c r="MK1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulanceDropOffAddressLine</t>
         </is>
       </c>
-      <c r="MK1" s="3" t="inlineStr">
+      <c r="ML1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulanceDropOffAddressLine2</t>
         </is>
       </c>
-      <c r="ML1" s="3" t="inlineStr">
+      <c r="MM1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulanceDropOffAddressCity</t>
         </is>
       </c>
-      <c r="MM1" s="3" t="inlineStr">
+      <c r="MN1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulanceDropOffAddressStateCode</t>
         </is>
       </c>
-      <c r="MN1" s="3" t="inlineStr">
+      <c r="MO1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulanceDropOffAddressZipCode</t>
         </is>
@@ -1830,7 +1835,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>685d7cebfc42e4481ffb582b</t>
+          <t>6901488a7e79911955eafe74</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -1991,11 +1996,7 @@
           <t>PRIMARY</t>
         </is>
       </c>
-      <c r="AT2" s="3" t="inlineStr">
-        <is>
-          <t>SELF</t>
-        </is>
-      </c>
+      <c r="AT2"/>
       <c r="AU2"/>
       <c r="AV2"/>
       <c r="AW2"/>
@@ -2162,22 +2163,22 @@
       <c r="DJ2"/>
       <c r="DK2"/>
       <c r="DL2"/>
-      <c r="DM2" s="3" t="inlineStr">
+      <c r="DM2"/>
+      <c r="DN2" s="3" t="inlineStr">
         <is>
           <t>J309</t>
         </is>
       </c>
-      <c r="DN2" s="3" t="inlineStr">
+      <c r="DO2" s="3" t="inlineStr">
         <is>
           <t>E785</t>
         </is>
       </c>
-      <c r="DO2" s="3" t="inlineStr">
+      <c r="DP2" s="3" t="inlineStr">
         <is>
           <t>E663</t>
         </is>
       </c>
-      <c r="DP2"/>
       <c r="DQ2"/>
       <c r="DR2"/>
       <c r="DS2"/>
@@ -2200,71 +2201,71 @@
       <c r="EJ2"/>
       <c r="EK2"/>
       <c r="EL2"/>
-      <c r="EM2" s="3" t="inlineStr">
+      <c r="EM2"/>
+      <c r="EN2" s="3" t="inlineStr">
         <is>
           <t>1999996666</t>
         </is>
       </c>
-      <c r="EN2" s="3" t="inlineStr">
+      <c r="EO2" s="3" t="inlineStr">
         <is>
           <t>KILDARE</t>
         </is>
       </c>
-      <c r="EO2" s="3" t="inlineStr">
+      <c r="EP2" s="3" t="inlineStr">
         <is>
           <t>BEN</t>
         </is>
       </c>
-      <c r="EP2"/>
-      <c r="EQ2" s="3" t="inlineStr">
+      <c r="EQ2"/>
+      <c r="ER2" s="3" t="inlineStr">
         <is>
           <t>204C00000X</t>
         </is>
       </c>
-      <c r="ER2" s="3" t="inlineStr">
+      <c r="ES2" s="3" t="inlineStr">
         <is>
           <t>PROVIDER_COMMERCIAL_NUMBER</t>
         </is>
       </c>
-      <c r="ES2" s="3" t="inlineStr">
+      <c r="ET2" s="3" t="inlineStr">
         <is>
           <t>KA6663</t>
         </is>
       </c>
-      <c r="ET2"/>
       <c r="EU2"/>
-      <c r="EV2" s="3" t="inlineStr">
+      <c r="EV2"/>
+      <c r="EW2" s="3" t="inlineStr">
         <is>
           <t>1581234567</t>
         </is>
       </c>
-      <c r="EW2" s="3" t="inlineStr">
+      <c r="EX2" s="3" t="inlineStr">
         <is>
           <t>KILDARE ASSOCIATES</t>
         </is>
       </c>
-      <c r="EX2" s="3" t="inlineStr">
+      <c r="EY2" s="3" t="inlineStr">
         <is>
           <t>2345 OCEAN BLVD</t>
         </is>
       </c>
-      <c r="EY2"/>
-      <c r="EZ2" s="3" t="inlineStr">
+      <c r="EZ2"/>
+      <c r="FA2" s="3" t="inlineStr">
         <is>
           <t>MIAMI</t>
         </is>
       </c>
-      <c r="FA2" s="3" t="inlineStr">
+      <c r="FB2" s="3" t="inlineStr">
         <is>
           <t>FL</t>
         </is>
       </c>
-      <c r="FB2" s="3" t="inlineStr">
+      <c r="FC2" s="3" t="inlineStr">
         <is>
           <t>33111</t>
         </is>
       </c>
-      <c r="FC2"/>
       <c r="FD2"/>
       <c r="FE2"/>
       <c r="FF2"/>
@@ -2292,67 +2293,67 @@
       <c r="GB2"/>
       <c r="GC2"/>
       <c r="GD2"/>
-      <c r="GE2" s="3" t="inlineStr">
+      <c r="GE2"/>
+      <c r="GF2" s="3" t="inlineStr">
         <is>
           <t>SECONDARY</t>
         </is>
       </c>
-      <c r="GF2" s="3" t="inlineStr">
+      <c r="GG2" s="3" t="inlineStr">
         <is>
           <t>SPOUSE</t>
         </is>
       </c>
-      <c r="GG2"/>
       <c r="GH2"/>
-      <c r="GI2" s="3" t="inlineStr">
+      <c r="GI2"/>
+      <c r="GJ2" s="3" t="inlineStr">
         <is>
           <t>CI</t>
         </is>
       </c>
-      <c r="GJ2" s="3" t="inlineStr">
+      <c r="GK2" s="3" t="inlineStr">
         <is>
           <t>MEMBER_ID</t>
         </is>
       </c>
-      <c r="GK2" s="3" t="inlineStr">
+      <c r="GL2" s="3" t="inlineStr">
         <is>
           <t>T55TY666</t>
         </is>
       </c>
-      <c r="GL2"/>
-      <c r="GM2" s="3" t="inlineStr">
+      <c r="GM2"/>
+      <c r="GN2" s="3" t="inlineStr">
         <is>
           <t>SMITH</t>
         </is>
       </c>
-      <c r="GN2" s="3" t="inlineStr">
+      <c r="GO2" s="3" t="inlineStr">
         <is>
           <t>JACK</t>
         </is>
       </c>
-      <c r="GO2"/>
-      <c r="GP2" s="3" t="inlineStr">
+      <c r="GP2"/>
+      <c r="GQ2" s="3" t="inlineStr">
         <is>
           <t>236 N MAIN ST</t>
         </is>
       </c>
-      <c r="GQ2"/>
-      <c r="GR2" s="3" t="inlineStr">
+      <c r="GR2"/>
+      <c r="GS2" s="3" t="inlineStr">
         <is>
           <t>MIAMI</t>
         </is>
       </c>
-      <c r="GS2" s="3" t="inlineStr">
+      <c r="GT2" s="3" t="inlineStr">
         <is>
           <t>FL</t>
         </is>
       </c>
-      <c r="GT2" s="3" t="inlineStr">
+      <c r="GU2" s="3" t="inlineStr">
         <is>
           <t>33111</t>
         </is>
       </c>
-      <c r="GU2"/>
       <c r="GV2"/>
       <c r="GW2"/>
       <c r="GX2"/>
@@ -2368,23 +2369,23 @@
       <c r="HH2"/>
       <c r="HI2"/>
       <c r="HJ2"/>
-      <c r="HK2" s="3" t="inlineStr">
+      <c r="HK2"/>
+      <c r="HL2" s="3" t="inlineStr">
         <is>
           <t>PAYOR_ID</t>
         </is>
       </c>
-      <c r="HL2" s="3" t="inlineStr">
+      <c r="HM2" s="3" t="inlineStr">
         <is>
           <t>999996666</t>
         </is>
       </c>
-      <c r="HM2"/>
-      <c r="HN2" s="3" t="inlineStr">
+      <c r="HN2"/>
+      <c r="HO2" s="3" t="inlineStr">
         <is>
           <t>KEY INSURANCE COMPANY</t>
         </is>
       </c>
-      <c r="HO2"/>
       <c r="HP2"/>
       <c r="HQ2"/>
       <c r="HR2"/>
@@ -2393,54 +2394,54 @@
       <c r="HU2"/>
       <c r="HV2"/>
       <c r="HW2"/>
-      <c r="HX2" s="3" t="inlineStr">
+      <c r="HX2"/>
+      <c r="HY2" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="HY2" s="3" t="inlineStr">
+      <c r="HZ2" s="3" t="inlineStr">
         <is>
           <t>99213</t>
         </is>
       </c>
-      <c r="HZ2"/>
       <c r="IA2"/>
       <c r="IB2"/>
       <c r="IC2"/>
       <c r="ID2"/>
-      <c r="IE2" s="1" t="n">
+      <c r="IE2"/>
+      <c r="IF2" s="1" t="n">
         <v>43.0</v>
       </c>
-      <c r="IF2" s="3" t="inlineStr">
+      <c r="IG2" s="3" t="inlineStr">
         <is>
           <t>UNIT</t>
         </is>
       </c>
-      <c r="IG2" t="n">
+      <c r="IH2" t="n">
         <v>1.0</v>
       </c>
-      <c r="IH2"/>
       <c r="II2"/>
-      <c r="IJ2" s="2" t="n">
+      <c r="IJ2"/>
+      <c r="IK2" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="IK2" s="2" t="n">
+      <c r="IL2" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="IL2" s="2" t="n">
+      <c r="IM2" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="IM2"/>
       <c r="IN2"/>
       <c r="IO2"/>
       <c r="IP2"/>
-      <c r="IQ2" s="4" t="n">
-        <v>38628.0</v>
-      </c>
+      <c r="IQ2"/>
       <c r="IR2" s="4" t="n">
         <v>38628.0</v>
       </c>
-      <c r="IS2"/>
+      <c r="IS2" s="4" t="n">
+        <v>38628.0</v>
+      </c>
       <c r="IT2"/>
       <c r="IU2"/>
       <c r="IV2"/>
@@ -2540,11 +2541,12 @@
       <c r="ML2"/>
       <c r="MM2"/>
       <c r="MN2"/>
+      <c r="MO2"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>685d7cebfc42e4481ffb582b</t>
+          <t>6901488a7e79911955eafe74</t>
         </is>
       </c>
       <c r="B3"/>
@@ -2781,52 +2783,52 @@
       <c r="HU3"/>
       <c r="HV3"/>
       <c r="HW3"/>
-      <c r="HX3" s="3" t="inlineStr">
+      <c r="HX3"/>
+      <c r="HY3" s="3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="HY3" s="3" t="inlineStr">
+      <c r="HZ3" s="3" t="inlineStr">
         <is>
           <t>96372</t>
         </is>
       </c>
-      <c r="HZ3"/>
       <c r="IA3"/>
       <c r="IB3"/>
       <c r="IC3"/>
       <c r="ID3"/>
-      <c r="IE3" s="1" t="n">
+      <c r="IE3"/>
+      <c r="IF3" s="1" t="n">
         <v>15.0</v>
       </c>
-      <c r="IF3" s="3" t="inlineStr">
+      <c r="IG3" s="3" t="inlineStr">
         <is>
           <t>UNIT</t>
         </is>
       </c>
-      <c r="IG3" t="n">
+      <c r="IH3" t="n">
         <v>1.0</v>
       </c>
-      <c r="IH3"/>
       <c r="II3"/>
-      <c r="IJ3" s="2" t="n">
+      <c r="IJ3"/>
+      <c r="IK3" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="IK3" s="2" t="n">
+      <c r="IL3" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="IL3"/>
       <c r="IM3"/>
       <c r="IN3"/>
       <c r="IO3"/>
       <c r="IP3"/>
-      <c r="IQ3" s="4" t="n">
-        <v>38628.0</v>
-      </c>
+      <c r="IQ3"/>
       <c r="IR3" s="4" t="n">
         <v>38628.0</v>
       </c>
-      <c r="IS3"/>
+      <c r="IS3" s="4" t="n">
+        <v>38628.0</v>
+      </c>
       <c r="IT3"/>
       <c r="IU3"/>
       <c r="IV3"/>
@@ -2926,11 +2928,12 @@
       <c r="ML3"/>
       <c r="MM3"/>
       <c r="MN3"/>
+      <c r="MO3"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>685d7cebfc42e4481ffb582b</t>
+          <t>6901488a7e79911955eafe74</t>
         </is>
       </c>
       <c r="B4"/>
@@ -3167,52 +3170,52 @@
       <c r="HU4"/>
       <c r="HV4"/>
       <c r="HW4"/>
-      <c r="HX4" s="3" t="inlineStr">
+      <c r="HX4"/>
+      <c r="HY4" s="3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="HY4" s="3" t="inlineStr">
+      <c r="HZ4" s="3" t="inlineStr">
         <is>
           <t>J3301</t>
         </is>
       </c>
-      <c r="HZ4"/>
       <c r="IA4"/>
       <c r="IB4"/>
       <c r="IC4"/>
       <c r="ID4"/>
-      <c r="IE4" s="1" t="n">
+      <c r="IE4"/>
+      <c r="IF4" s="1" t="n">
         <v>21.04</v>
       </c>
-      <c r="IF4" s="3" t="inlineStr">
+      <c r="IG4" s="3" t="inlineStr">
         <is>
           <t>UNIT</t>
         </is>
       </c>
-      <c r="IG4" t="n">
+      <c r="IH4" t="n">
         <v>1.0</v>
       </c>
-      <c r="IH4"/>
       <c r="II4"/>
-      <c r="IJ4" s="2" t="n">
+      <c r="IJ4"/>
+      <c r="IK4" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="IK4" s="2" t="n">
+      <c r="IL4" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="IL4"/>
       <c r="IM4"/>
       <c r="IN4"/>
       <c r="IO4"/>
       <c r="IP4"/>
-      <c r="IQ4" s="4" t="n">
-        <v>38628.0</v>
-      </c>
+      <c r="IQ4"/>
       <c r="IR4" s="4" t="n">
         <v>38628.0</v>
       </c>
-      <c r="IS4"/>
+      <c r="IS4" s="4" t="n">
+        <v>38628.0</v>
+      </c>
       <c r="IT4"/>
       <c r="IU4"/>
       <c r="IV4"/>
@@ -3312,6 +3315,7 @@
       <c r="ML4"/>
       <c r="MM4"/>
       <c r="MN4"/>
+      <c r="MO4"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/converted_files/837/cob-prov-payera.xlsx
+++ b/converted_files/837/cob-prov-payera.xlsx
@@ -1835,7 +1835,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>6901488a7e79911955eafe74</t>
+          <t>6918d0587f059d7aab1b4ffa</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -2546,7 +2546,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>6901488a7e79911955eafe74</t>
+          <t>6918d0587f059d7aab1b4ffa</t>
         </is>
       </c>
       <c r="B3"/>
@@ -2933,7 +2933,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>6901488a7e79911955eafe74</t>
+          <t>6918d0587f059d7aab1b4ffa</t>
         </is>
       </c>
       <c r="B4"/>
